--- a/employeeReport.xlsx
+++ b/employeeReport.xlsx
@@ -274,7 +274,7 @@
       <c r="C4" s="3" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">2023-11-16T17:50:52</t>
+            <t xml:space="preserve">2023-11-16T20:25:56</t>
           </r>
         </is>
       </c>
